--- a/resultados/pretratamiento-tablas-control/pretrat-italia-elo-dificil-dificultad.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-italia-elo-dificil-dificultad.xlsx
@@ -121,7 +121,7 @@
     <t>41.066 (136)</t>
   </si>
   <si>
-    <t>11.412 (136)</t>
+    <t>11.397 (136)</t>
   </si>
   <si>
     <t>11.375 (136)</t>
@@ -175,7 +175,7 @@
     <t>35.542 (107)</t>
   </si>
   <si>
-    <t>12.243 (107)</t>
+    <t>12.262 (107)</t>
   </si>
   <si>
     <t>12.561 (107)</t>
@@ -283,7 +283,7 @@
     <t>41.114 (105)</t>
   </si>
   <si>
-    <t>11.152 (105)</t>
+    <t>11.133 (105)</t>
   </si>
   <si>
     <t>11.276 (105)</t>
@@ -334,7 +334,7 @@
     <t>37.294 (126)</t>
   </si>
   <si>
-    <t>12.222 (126)</t>
+    <t>12.238 (126)</t>
   </si>
   <si>
     <t>12.333 (126)</t>
@@ -808,7 +808,7 @@
     <t>39.86 (100)</t>
   </si>
   <si>
-    <t>12.1 (100)</t>
+    <t>12.08 (100)</t>
   </si>
   <si>
     <t>12.12 (100)</t>
@@ -862,7 +862,7 @@
     <t>36.28 (118)</t>
   </si>
   <si>
-    <t>11.941 (118)</t>
+    <t>11.949 (118)</t>
   </si>
   <si>
     <t>12.347 (118)</t>
@@ -913,7 +913,7 @@
     <t>32.4 (20)</t>
   </si>
   <si>
-    <t>13.35 (20)</t>
+    <t>13.4 (20)</t>
   </si>
   <si>
     <t>14.65 (20)</t>
@@ -967,7 +967,7 @@
     <t>37.795 (73)</t>
   </si>
   <si>
-    <t>11.548 (73)</t>
+    <t>11.521 (73)</t>
   </si>
   <si>
     <t>12.151 (73)</t>
@@ -1021,7 +1021,7 @@
     <t>39.387 (124)</t>
   </si>
   <si>
-    <t>12.081 (124)</t>
+    <t>12.089 (124)</t>
   </si>
   <si>
     <t>12.016 (124)</t>
@@ -1075,7 +1075,7 @@
     <t>30.974 (39)</t>
   </si>
   <si>
-    <t>13.333 (39)</t>
+    <t>13.359 (39)</t>
   </si>
   <si>
     <t>14.487 (39)</t>
@@ -1225,7 +1225,7 @@
     <t>40.0 (129)</t>
   </si>
   <si>
-    <t>11.822 (129)</t>
+    <t>11.814 (129)</t>
   </si>
   <si>
     <t>11.992 (129)</t>
@@ -1276,7 +1276,7 @@
     <t>30.759 (58)</t>
   </si>
   <si>
-    <t>13.052 (58)</t>
+    <t>13.069 (58)</t>
   </si>
   <si>
     <t>13.966 (58)</t>
@@ -1435,7 +1435,7 @@
     <t>39.176 (119)</t>
   </si>
   <si>
-    <t>11.857 (119)</t>
+    <t>11.849 (119)</t>
   </si>
   <si>
     <t>11.832 (119)</t>
@@ -1486,7 +1486,7 @@
     <t>34.266 (79)</t>
   </si>
   <si>
-    <t>12.392 (79)</t>
+    <t>12.405 (79)</t>
   </si>
   <si>
     <t>13.57 (79)</t>
@@ -1594,7 +1594,7 @@
     <t>37.127 (71)</t>
   </si>
   <si>
-    <t>12.366 (71)</t>
+    <t>12.338 (71)</t>
   </si>
   <si>
     <t>13.183 (71)</t>
@@ -1648,7 +1648,7 @@
     <t>36.863 (117)</t>
   </si>
   <si>
-    <t>12.333 (117)</t>
+    <t>12.342 (117)</t>
   </si>
   <si>
     <t>12.564 (117)</t>
@@ -1702,7 +1702,7 @@
     <t>36.2 (35)</t>
   </si>
   <si>
-    <t>13.114 (35)</t>
+    <t>13.143 (35)</t>
   </si>
   <si>
     <t>13.971 (35)</t>
@@ -1756,7 +1756,7 @@
     <t>37.192 (52)</t>
   </si>
   <si>
-    <t>11.558 (52)</t>
+    <t>11.519 (52)</t>
   </si>
   <si>
     <t>12.577 (52)</t>
@@ -1810,7 +1810,7 @@
     <t>37.51 (104)</t>
   </si>
   <si>
-    <t>12.375 (104)</t>
+    <t>12.385 (104)</t>
   </si>
   <si>
     <t>12.587 (104)</t>
@@ -1864,7 +1864,7 @@
     <t>35.444 (63)</t>
   </si>
   <si>
-    <t>13.317 (63)</t>
+    <t>13.333 (63)</t>
   </si>
   <si>
     <t>14.032 (63)</t>
@@ -2026,7 +2026,7 @@
     <t>36.979 (95)</t>
   </si>
   <si>
-    <t>11.8 (95)</t>
+    <t>11.789 (95)</t>
   </si>
   <si>
     <t>12.221 (95)</t>
@@ -2080,7 +2080,7 @@
     <t>35.69 (84)</t>
   </si>
   <si>
-    <t>13.512 (84)</t>
+    <t>13.524 (84)</t>
   </si>
   <si>
     <t>13.869 (84)</t>
@@ -2239,7 +2239,7 @@
     <t>38.061 (82)</t>
   </si>
   <si>
-    <t>12.439 (82)</t>
+    <t>12.427 (82)</t>
   </si>
   <si>
     <t>12.341 (82)</t>
@@ -2293,7 +2293,7 @@
     <t>35.753 (93)</t>
   </si>
   <si>
-    <t>12.086 (93)</t>
+    <t>12.097 (93)</t>
   </si>
   <si>
     <t>13.032 (93)</t>
@@ -2494,7 +2494,7 @@
     <t>34.983 (116)</t>
   </si>
   <si>
-    <t>12.586 (116)</t>
+    <t>12.595 (116)</t>
   </si>
   <si>
     <t>13.095 (116)</t>
@@ -2599,7 +2599,7 @@
     <t>31.75 (4)</t>
   </si>
   <si>
-    <t>12.25 (4)</t>
+    <t>12.5 (4)</t>
   </si>
   <si>
     <t>15.5 (4)</t>
@@ -2698,7 +2698,7 @@
     <t>36.147 (95)</t>
   </si>
   <si>
-    <t>12.179 (95)</t>
+    <t>12.189 (95)</t>
   </si>
   <si>
     <t>12.968 (95)</t>
@@ -2803,7 +2803,7 @@
     <t>37.4 (15)</t>
   </si>
   <si>
-    <t>12.267 (15)</t>
+    <t>12.333 (15)</t>
   </si>
   <si>
     <t>13.267 (15)</t>
@@ -2902,7 +2902,7 @@
     <t>33.121 (66)</t>
   </si>
   <si>
-    <t>11.97 (66)</t>
+    <t>11.985 (66)</t>
   </si>
   <si>
     <t>13.045 (66)</t>
@@ -3010,7 +3010,7 @@
     <t>33.643 (28)</t>
   </si>
   <si>
-    <t>13.179 (28)</t>
+    <t>13.214 (28)</t>
   </si>
   <si>
     <t>13.893 (28)</t>
@@ -3157,7 +3157,7 @@
     <t>35.771 (48)</t>
   </si>
   <si>
-    <t>12.542 (48)</t>
+    <t>12.562 (48)</t>
   </si>
   <si>
     <t>12.667 (48)</t>
@@ -3259,7 +3259,7 @@
     <t>35.564 (55)</t>
   </si>
   <si>
-    <t>13.509 (55)</t>
+    <t>13.527 (55)</t>
   </si>
   <si>
     <t>13.8 (55)</t>
@@ -3770,10 +3770,10 @@
         <v>2.896</v>
       </c>
       <c r="H2">
-        <v>0.892</v>
+        <v>0.969</v>
       </c>
       <c r="I2">
-        <v>0.374</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3799,10 +3799,10 @@
         <v>-2.265</v>
       </c>
       <c r="H3">
-        <v>-0.671</v>
+        <v>-0.543</v>
       </c>
       <c r="I3">
-        <v>0.503</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3828,10 +3828,10 @@
         <v>3.354</v>
       </c>
       <c r="H4">
-        <v>0.902</v>
+        <v>0.897</v>
       </c>
       <c r="I4">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3857,10 +3857,10 @@
         <v>1.57</v>
       </c>
       <c r="H5">
-        <v>0.356</v>
+        <v>0.367</v>
       </c>
       <c r="I5">
-        <v>0.722</v>
+        <v>0.714</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3886,10 +3886,10 @@
         <v>-1.074</v>
       </c>
       <c r="H6">
-        <v>-0.243</v>
+        <v>-0.183</v>
       </c>
       <c r="I6">
-        <v>0.8080000000000001</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3915,10 +3915,10 @@
         <v>-10.639</v>
       </c>
       <c r="H7">
-        <v>-2.448</v>
+        <v>-2.367</v>
       </c>
       <c r="I7">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3941,13 +3941,13 @@
         <v>0.037</v>
       </c>
       <c r="G8">
-        <v>-0.701</v>
+        <v>-0.63</v>
       </c>
       <c r="H8">
-        <v>-0.488</v>
+        <v>-0.489</v>
       </c>
       <c r="I8">
-        <v>0.626</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3973,10 +3973,10 @@
         <v>2.381</v>
       </c>
       <c r="H9">
-        <v>1.535</v>
+        <v>1.371</v>
       </c>
       <c r="I9">
-        <v>0.126</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4002,10 +4002,10 @@
         <v>-1.327</v>
       </c>
       <c r="H10">
-        <v>-0.732</v>
+        <v>-0.745</v>
       </c>
       <c r="I10">
-        <v>0.465</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4031,10 +4031,10 @@
         <v>-0.586</v>
       </c>
       <c r="H11">
-        <v>-0.326</v>
+        <v>-0.313</v>
       </c>
       <c r="I11">
-        <v>0.745</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4060,10 +4060,10 @@
         <v>-0.768</v>
       </c>
       <c r="H12">
-        <v>-0.436</v>
+        <v>-0.304</v>
       </c>
       <c r="I12">
-        <v>0.663</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4089,10 +4089,10 @@
         <v>4.396</v>
       </c>
       <c r="H13">
-        <v>2.563</v>
+        <v>2.738</v>
       </c>
       <c r="I13">
-        <v>0.011</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4118,10 +4118,10 @@
         <v>-0.024</v>
       </c>
       <c r="H14">
-        <v>-0.806</v>
+        <v>-0.877</v>
       </c>
       <c r="I14">
-        <v>0.421</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4147,10 +4147,10 @@
         <v>-0.048</v>
       </c>
       <c r="H15">
-        <v>-1.646</v>
+        <v>-1.659</v>
       </c>
       <c r="I15">
-        <v>0.101</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4176,10 +4176,10 @@
         <v>-0.011</v>
       </c>
       <c r="H16">
-        <v>-0.389</v>
+        <v>-0.468</v>
       </c>
       <c r="I16">
-        <v>0.698</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4205,10 +4205,10 @@
         <v>0.002</v>
       </c>
       <c r="H17">
-        <v>0.08</v>
+        <v>0.083</v>
       </c>
       <c r="I17">
-        <v>0.9360000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4234,10 +4234,10 @@
         <v>-0.023</v>
       </c>
       <c r="H18">
-        <v>-0.746</v>
+        <v>-0.955</v>
       </c>
       <c r="I18">
-        <v>0.457</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4263,10 +4263,10 @@
         <v>-0.056</v>
       </c>
       <c r="H19">
-        <v>-1.829</v>
+        <v>-2.083</v>
       </c>
       <c r="I19">
-        <v>0.06900000000000001</v>
+        <v>0.037</v>
       </c>
     </row>
   </sheetData>
@@ -4352,10 +4352,10 @@
         <v>-2.111</v>
       </c>
       <c r="I2">
-        <v>-0.608</v>
+        <v>-0.599</v>
       </c>
       <c r="J2">
-        <v>0.544</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4384,10 +4384,10 @@
         <v>-2.893</v>
       </c>
       <c r="I3">
-        <v>-0.876</v>
+        <v>-0.805</v>
       </c>
       <c r="J3">
-        <v>0.382</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4416,10 +4416,10 @@
         <v>-1.393</v>
       </c>
       <c r="I4">
-        <v>-0.352</v>
+        <v>-0.31</v>
       </c>
       <c r="J4">
-        <v>0.725</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4448,10 +4448,10 @@
         <v>5.551</v>
       </c>
       <c r="I5">
-        <v>1.195</v>
+        <v>1.003</v>
       </c>
       <c r="J5">
-        <v>0.234</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4480,10 +4480,10 @@
         <v>0.297</v>
       </c>
       <c r="I6">
-        <v>0.064</v>
+        <v>0.059</v>
       </c>
       <c r="J6">
-        <v>0.949</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4512,10 +4512,10 @@
         <v>1.91</v>
       </c>
       <c r="I7">
-        <v>0.408</v>
+        <v>0.456</v>
       </c>
       <c r="J7">
-        <v>0.6840000000000001</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4541,13 +4541,13 @@
         <v>0.036</v>
       </c>
       <c r="H8">
-        <v>1.356</v>
+        <v>1.449</v>
       </c>
       <c r="I8">
-        <v>0.867</v>
+        <v>0.948</v>
       </c>
       <c r="J8">
-        <v>0.387</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4576,10 +4576,10 @@
         <v>1.908</v>
       </c>
       <c r="I9">
-        <v>1.176</v>
+        <v>1.01</v>
       </c>
       <c r="J9">
-        <v>0.241</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4608,10 +4608,10 @@
         <v>0.199</v>
       </c>
       <c r="I10">
-        <v>0.1</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="J10">
-        <v>0.92</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4640,10 +4640,10 @@
         <v>-2.107</v>
       </c>
       <c r="I11">
-        <v>-1.08</v>
+        <v>-0.871</v>
       </c>
       <c r="J11">
-        <v>0.282</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4672,10 +4672,10 @@
         <v>-0.854</v>
       </c>
       <c r="I12">
-        <v>-0.458</v>
+        <v>-0.399</v>
       </c>
       <c r="J12">
-        <v>0.648</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4704,10 +4704,10 @@
         <v>0.19</v>
       </c>
       <c r="I13">
-        <v>0.1</v>
+        <v>0.114</v>
       </c>
       <c r="J13">
-        <v>0.92</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4736,10 +4736,10 @@
         <v>-0.033</v>
       </c>
       <c r="I14">
-        <v>-1.018</v>
+        <v>-0.903</v>
       </c>
       <c r="J14">
-        <v>0.31</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4768,10 +4768,10 @@
         <v>-0.053</v>
       </c>
       <c r="I15">
-        <v>-1.713</v>
+        <v>-1.888</v>
       </c>
       <c r="J15">
-        <v>0.089</v>
+        <v>0.059</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4800,10 +4800,10 @@
         <v>-0.038</v>
       </c>
       <c r="I16">
-        <v>-1.224</v>
+        <v>-1.126</v>
       </c>
       <c r="J16">
-        <v>0.223</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4832,10 +4832,10 @@
         <v>-0.005</v>
       </c>
       <c r="I17">
-        <v>-0.146</v>
+        <v>-0.131</v>
       </c>
       <c r="J17">
-        <v>0.884</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4864,10 +4864,10 @@
         <v>-0.038</v>
       </c>
       <c r="I18">
-        <v>-1.124</v>
+        <v>-1.101</v>
       </c>
       <c r="J18">
-        <v>0.263</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4896,10 +4896,10 @@
         <v>-0.014</v>
       </c>
       <c r="I19">
-        <v>-0.423</v>
+        <v>-0.433</v>
       </c>
       <c r="J19">
-        <v>0.673</v>
+        <v>0.665</v>
       </c>
     </row>
   </sheetData>
@@ -4985,10 +4985,10 @@
         <v>-0.5659999999999999</v>
       </c>
       <c r="I2">
-        <v>-0.133</v>
+        <v>-0.107</v>
       </c>
       <c r="J2">
-        <v>0.894</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5017,10 +5017,10 @@
         <v>-0.109</v>
       </c>
       <c r="I3">
-        <v>-0.027</v>
+        <v>-0.028</v>
       </c>
       <c r="J3">
-        <v>0.979</v>
+        <v>0.978</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5049,7 +5049,7 @@
         <v>2.703</v>
       </c>
       <c r="I4">
-        <v>0.5580000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="J4">
         <v>0.577</v>
@@ -5081,10 +5081,10 @@
         <v>5.344</v>
       </c>
       <c r="I5">
-        <v>0.9389999999999999</v>
+        <v>0.834</v>
       </c>
       <c r="J5">
-        <v>0.349</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5113,10 +5113,10 @@
         <v>-4.237</v>
       </c>
       <c r="I6">
-        <v>-0.744</v>
+        <v>-0.678</v>
       </c>
       <c r="J6">
-        <v>0.458</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5145,10 +5145,10 @@
         <v>-0.646</v>
       </c>
       <c r="I7">
-        <v>-0.113</v>
+        <v>-0.106</v>
       </c>
       <c r="J7">
-        <v>0.91</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5174,13 +5174,13 @@
         <v>0.025</v>
       </c>
       <c r="H8">
-        <v>0.643</v>
+        <v>0.663</v>
       </c>
       <c r="I8">
-        <v>0.335</v>
+        <v>0.273</v>
       </c>
       <c r="J8">
-        <v>0.738</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5209,10 +5209,10 @@
         <v>0.982</v>
       </c>
       <c r="I9">
-        <v>0.493</v>
+        <v>0.477</v>
       </c>
       <c r="J9">
-        <v>0.623</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5241,10 +5241,10 @@
         <v>-2.293</v>
       </c>
       <c r="I10">
-        <v>-0.948</v>
+        <v>-0.899</v>
       </c>
       <c r="J10">
-        <v>0.344</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5273,10 +5273,10 @@
         <v>-2.287</v>
       </c>
       <c r="I11">
-        <v>-0.957</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="J11">
-        <v>0.34</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5305,10 +5305,10 @@
         <v>0.546</v>
       </c>
       <c r="I12">
-        <v>0.239</v>
+        <v>0.21</v>
       </c>
       <c r="J12">
-        <v>0.8110000000000001</v>
+        <v>0.833</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5337,10 +5337,10 @@
         <v>1.44</v>
       </c>
       <c r="I13">
-        <v>0.62</v>
+        <v>0.661</v>
       </c>
       <c r="J13">
-        <v>0.536</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5369,10 +5369,10 @@
         <v>-0.029</v>
       </c>
       <c r="I14">
-        <v>-0.733</v>
+        <v>-0.714</v>
       </c>
       <c r="J14">
-        <v>0.465</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5401,10 +5401,10 @@
         <v>-0.074</v>
       </c>
       <c r="I15">
-        <v>-1.961</v>
+        <v>-2.21</v>
       </c>
       <c r="J15">
-        <v>0.052</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5433,10 +5433,10 @@
         <v>-0.056</v>
       </c>
       <c r="I16">
-        <v>-1.475</v>
+        <v>-1.359</v>
       </c>
       <c r="J16">
-        <v>0.142</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5465,10 +5465,10 @@
         <v>0.02</v>
       </c>
       <c r="I17">
-        <v>0.505</v>
+        <v>0.456</v>
       </c>
       <c r="J17">
-        <v>0.614</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5497,10 +5497,10 @@
         <v>-0.051</v>
       </c>
       <c r="I18">
-        <v>-1.247</v>
+        <v>-1.16</v>
       </c>
       <c r="J18">
-        <v>0.214</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5529,10 +5529,10 @@
         <v>0.008</v>
       </c>
       <c r="I19">
-        <v>0.208</v>
+        <v>0.175</v>
       </c>
       <c r="J19">
-        <v>0.836</v>
+        <v>0.861</v>
       </c>
     </row>
   </sheetData>
@@ -5625,10 +5625,10 @@
         <v>3.15</v>
       </c>
       <c r="J2">
-        <v>0.635</v>
+        <v>0.497</v>
       </c>
       <c r="K2">
-        <v>0.526</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5660,10 +5660,10 @@
         <v>-2.36</v>
       </c>
       <c r="J3">
-        <v>-0.5</v>
+        <v>-0.515</v>
       </c>
       <c r="K3">
-        <v>0.618</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5695,10 +5695,10 @@
         <v>2.947</v>
       </c>
       <c r="J4">
-        <v>0.521</v>
+        <v>0.501</v>
       </c>
       <c r="K4">
-        <v>0.603</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5730,10 +5730,10 @@
         <v>10.709</v>
       </c>
       <c r="J5">
-        <v>1.62</v>
+        <v>1.505</v>
       </c>
       <c r="K5">
-        <v>0.107</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5765,10 +5765,10 @@
         <v>-4.64</v>
       </c>
       <c r="J6">
-        <v>-0.697</v>
+        <v>-0.739</v>
       </c>
       <c r="K6">
-        <v>0.487</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5800,10 +5800,10 @@
         <v>1.245</v>
       </c>
       <c r="J7">
-        <v>0.186</v>
+        <v>0.165</v>
       </c>
       <c r="K7">
-        <v>0.853</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5832,13 +5832,13 @@
         <v>0.019</v>
       </c>
       <c r="I8">
-        <v>-1.554</v>
+        <v>-1.527</v>
       </c>
       <c r="J8">
-        <v>-0.695</v>
+        <v>-0.55</v>
       </c>
       <c r="K8">
-        <v>0.488</v>
+        <v>0.582</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5870,10 +5870,10 @@
         <v>2.264</v>
       </c>
       <c r="J9">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="K9">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5905,10 +5905,10 @@
         <v>-2.049</v>
       </c>
       <c r="J10">
-        <v>-0.725</v>
+        <v>-0.619</v>
       </c>
       <c r="K10">
-        <v>0.47</v>
+        <v>0.536</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5940,10 +5940,10 @@
         <v>-5.1</v>
       </c>
       <c r="J11">
-        <v>-1.841</v>
+        <v>-1.812</v>
       </c>
       <c r="K11">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5975,10 +5975,10 @@
         <v>0.467</v>
       </c>
       <c r="J12">
-        <v>0.175</v>
+        <v>0.189</v>
       </c>
       <c r="K12">
-        <v>0.861</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6010,10 +6010,10 @@
         <v>1.004</v>
       </c>
       <c r="J13">
-        <v>0.37</v>
+        <v>0.352</v>
       </c>
       <c r="K13">
-        <v>0.712</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6045,10 +6045,10 @@
         <v>-0.03</v>
       </c>
       <c r="J14">
-        <v>-0.638</v>
+        <v>-0.609</v>
       </c>
       <c r="K14">
-        <v>0.524</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6080,10 +6080,10 @@
         <v>-0.097</v>
       </c>
       <c r="J15">
-        <v>-2.203</v>
+        <v>-2.665</v>
       </c>
       <c r="K15">
-        <v>0.029</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6115,10 +6115,10 @@
         <v>-0.06</v>
       </c>
       <c r="J16">
-        <v>-1.36</v>
+        <v>-1.293</v>
       </c>
       <c r="K16">
-        <v>0.176</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6150,10 +6150,10 @@
         <v>0.028</v>
       </c>
       <c r="J17">
-        <v>0.59</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="K17">
-        <v>0.556</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6185,10 +6185,10 @@
         <v>-0.021</v>
       </c>
       <c r="J18">
-        <v>-0.428</v>
+        <v>-0.515</v>
       </c>
       <c r="K18">
-        <v>0.669</v>
+        <v>0.606</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6220,10 +6220,10 @@
         <v>0.012</v>
       </c>
       <c r="J19">
-        <v>0.245</v>
+        <v>0.232</v>
       </c>
       <c r="K19">
-        <v>0.8070000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -6309,10 +6309,10 @@
         <v>0.57</v>
       </c>
       <c r="I2">
-        <v>0.195</v>
+        <v>0.182</v>
       </c>
       <c r="J2">
-        <v>0.846</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6341,10 +6341,10 @@
         <v>-0.333</v>
       </c>
       <c r="I3">
-        <v>-0.119</v>
+        <v>-0.149</v>
       </c>
       <c r="J3">
-        <v>0.905</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6373,10 +6373,10 @@
         <v>3.189</v>
       </c>
       <c r="I4">
-        <v>0.9409999999999999</v>
+        <v>1.004</v>
       </c>
       <c r="J4">
-        <v>0.348</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6405,10 +6405,10 @@
         <v>8.803000000000001</v>
       </c>
       <c r="I5">
-        <v>2.243</v>
+        <v>2.104</v>
       </c>
       <c r="J5">
-        <v>0.026</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6437,10 +6437,10 @@
         <v>1.615</v>
       </c>
       <c r="I6">
-        <v>0.433</v>
+        <v>0.403</v>
       </c>
       <c r="J6">
-        <v>0.666</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6469,10 +6469,10 @@
         <v>-1.369</v>
       </c>
       <c r="I7">
-        <v>-0.37</v>
+        <v>-0.344</v>
       </c>
       <c r="J7">
-        <v>0.712</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6498,13 +6498,13 @@
         <v>0.056</v>
       </c>
       <c r="H8">
-        <v>-0.05</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="I8">
-        <v>-0.037</v>
+        <v>-0.007</v>
       </c>
       <c r="J8">
-        <v>0.97</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6533,10 +6533,10 @@
         <v>1.125</v>
       </c>
       <c r="I9">
-        <v>0.8129999999999999</v>
+        <v>0.896</v>
       </c>
       <c r="J9">
-        <v>0.417</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6565,10 +6565,10 @@
         <v>-1.596</v>
       </c>
       <c r="I10">
-        <v>-0.9389999999999999</v>
+        <v>-0.884</v>
       </c>
       <c r="J10">
-        <v>0.349</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6597,10 +6597,10 @@
         <v>-3.632</v>
       </c>
       <c r="I11">
-        <v>-2.203</v>
+        <v>-1.964</v>
       </c>
       <c r="J11">
-        <v>0.029</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6629,10 +6629,10 @@
         <v>-1.426</v>
       </c>
       <c r="I12">
-        <v>-0.9409999999999999</v>
+        <v>-0.907</v>
       </c>
       <c r="J12">
-        <v>0.348</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6661,7 +6661,7 @@
         <v>0.988</v>
       </c>
       <c r="I13">
-        <v>0.644</v>
+        <v>0.642</v>
       </c>
       <c r="J13">
         <v>0.521</v>
@@ -6693,10 +6693,10 @@
         <v>-0.037</v>
       </c>
       <c r="I14">
-        <v>-1.336</v>
+        <v>-1.462</v>
       </c>
       <c r="J14">
-        <v>0.184</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6725,10 +6725,10 @@
         <v>-0.056</v>
       </c>
       <c r="I15">
-        <v>-2.11</v>
+        <v>-2.116</v>
       </c>
       <c r="J15">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6757,10 +6757,10 @@
         <v>-0.052</v>
       </c>
       <c r="I16">
-        <v>-1.964</v>
+        <v>-1.548</v>
       </c>
       <c r="J16">
-        <v>0.051</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6789,10 +6789,10 @@
         <v>-0.023</v>
       </c>
       <c r="I17">
-        <v>-0.799</v>
+        <v>-0.706</v>
       </c>
       <c r="J17">
-        <v>0.426</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6821,10 +6821,10 @@
         <v>-0.025</v>
       </c>
       <c r="I18">
-        <v>-0.879</v>
+        <v>-1.063</v>
       </c>
       <c r="J18">
-        <v>0.381</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6853,10 +6853,10 @@
         <v>-0.015</v>
       </c>
       <c r="I19">
-        <v>-0.546</v>
+        <v>-0.488</v>
       </c>
       <c r="J19">
-        <v>0.586</v>
+        <v>0.625</v>
       </c>
     </row>
   </sheetData>
@@ -6942,10 +6942,10 @@
         <v>0.982</v>
       </c>
       <c r="I2">
-        <v>0.292</v>
+        <v>0.268</v>
       </c>
       <c r="J2">
-        <v>0.771</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6974,10 +6974,10 @@
         <v>-1.981</v>
       </c>
       <c r="I3">
-        <v>-0.618</v>
+        <v>-0.621</v>
       </c>
       <c r="J3">
-        <v>0.538</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7006,10 +7006,10 @@
         <v>0.716</v>
       </c>
       <c r="I4">
-        <v>0.183</v>
+        <v>0.212</v>
       </c>
       <c r="J4">
-        <v>0.855</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7038,10 +7038,10 @@
         <v>8.609999999999999</v>
       </c>
       <c r="I5">
-        <v>1.899</v>
+        <v>1.604</v>
       </c>
       <c r="J5">
-        <v>0.059</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7070,10 +7070,10 @@
         <v>4.68</v>
       </c>
       <c r="I6">
-        <v>1.094</v>
+        <v>1.164</v>
       </c>
       <c r="J6">
-        <v>0.276</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7102,10 +7102,10 @@
         <v>2.453</v>
       </c>
       <c r="I7">
-        <v>0.576</v>
+        <v>0.546</v>
       </c>
       <c r="J7">
-        <v>0.5649999999999999</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7131,13 +7131,13 @@
         <v>0.041</v>
       </c>
       <c r="H8">
-        <v>-0.296</v>
+        <v>-0.282</v>
       </c>
       <c r="I8">
-        <v>-0.193</v>
+        <v>-0.176</v>
       </c>
       <c r="J8">
-        <v>0.848</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7166,10 +7166,10 @@
         <v>1.815</v>
       </c>
       <c r="I9">
-        <v>1.143</v>
+        <v>1.055</v>
       </c>
       <c r="J9">
-        <v>0.255</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7198,10 +7198,10 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="I10">
-        <v>-0.413</v>
+        <v>-0.429</v>
       </c>
       <c r="J10">
-        <v>0.68</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7230,10 +7230,10 @@
         <v>-3.359</v>
       </c>
       <c r="I11">
-        <v>-1.762</v>
+        <v>-1.434</v>
       </c>
       <c r="J11">
-        <v>0.08</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7262,10 +7262,10 @@
         <v>-2.527</v>
       </c>
       <c r="I12">
-        <v>-1.456</v>
+        <v>-1.694</v>
       </c>
       <c r="J12">
-        <v>0.147</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7294,10 +7294,10 @@
         <v>-0.6820000000000001</v>
       </c>
       <c r="I13">
-        <v>-0.386</v>
+        <v>-0.407</v>
       </c>
       <c r="J13">
-        <v>0.7</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7326,10 +7326,10 @@
         <v>-0.043</v>
       </c>
       <c r="I14">
-        <v>-1.325</v>
+        <v>-1.33</v>
       </c>
       <c r="J14">
-        <v>0.187</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7358,10 +7358,10 @@
         <v>-0.056</v>
       </c>
       <c r="I15">
-        <v>-1.832</v>
+        <v>-1.799</v>
       </c>
       <c r="J15">
-        <v>0.06900000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7390,10 +7390,10 @@
         <v>-0.052</v>
       </c>
       <c r="I16">
-        <v>-1.709</v>
+        <v>-1.251</v>
       </c>
       <c r="J16">
-        <v>0.089</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7422,10 +7422,10 @@
         <v>-0.032</v>
       </c>
       <c r="I17">
-        <v>-0.986</v>
+        <v>-0.832</v>
       </c>
       <c r="J17">
-        <v>0.326</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7454,10 +7454,10 @@
         <v>-0.01</v>
       </c>
       <c r="I18">
-        <v>-0.309</v>
+        <v>-0.338</v>
       </c>
       <c r="J18">
-        <v>0.758</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7486,10 +7486,10 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="I19">
-        <v>0.274</v>
+        <v>0.241</v>
       </c>
       <c r="J19">
-        <v>0.784</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7582,10 +7582,10 @@
         <v>1.14</v>
       </c>
       <c r="J2">
-        <v>0.294</v>
+        <v>0.265</v>
       </c>
       <c r="K2">
-        <v>0.769</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7617,10 +7617,10 @@
         <v>0.88</v>
       </c>
       <c r="J3">
-        <v>0.238</v>
+        <v>0.294</v>
       </c>
       <c r="K3">
-        <v>0.8120000000000001</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7652,10 +7652,10 @@
         <v>5.184</v>
       </c>
       <c r="J4">
-        <v>1.155</v>
+        <v>1.277</v>
       </c>
       <c r="K4">
-        <v>0.25</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7687,10 +7687,10 @@
         <v>6.492</v>
       </c>
       <c r="J5">
-        <v>1.233</v>
+        <v>1.093</v>
       </c>
       <c r="K5">
-        <v>0.219</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7722,10 +7722,10 @@
         <v>0.867</v>
       </c>
       <c r="J6">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="K6">
-        <v>0.861</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7757,10 +7757,10 @@
         <v>1.089</v>
       </c>
       <c r="J7">
-        <v>0.222</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>0.825</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7789,13 +7789,13 @@
         <v>0.032</v>
       </c>
       <c r="I8">
-        <v>-0.12</v>
+        <v>-0.128</v>
       </c>
       <c r="J8">
-        <v>-0.068</v>
+        <v>-0.066</v>
       </c>
       <c r="K8">
-        <v>0.946</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7827,10 +7827,10 @@
         <v>0.741</v>
       </c>
       <c r="J9">
-        <v>0.403</v>
+        <v>0.456</v>
       </c>
       <c r="K9">
-        <v>0.6870000000000001</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7862,10 +7862,10 @@
         <v>-3.235</v>
       </c>
       <c r="J10">
-        <v>-1.44</v>
+        <v>-1.477</v>
       </c>
       <c r="K10">
-        <v>0.152</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7897,10 +7897,10 @@
         <v>-3.03</v>
       </c>
       <c r="J11">
-        <v>-1.373</v>
+        <v>-1.232</v>
       </c>
       <c r="K11">
-        <v>0.172</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7932,10 +7932,10 @@
         <v>-1.362</v>
       </c>
       <c r="J12">
-        <v>-0.677</v>
+        <v>-0.734</v>
       </c>
       <c r="K12">
-        <v>0.499</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7967,7 +7967,7 @@
         <v>0.005</v>
       </c>
       <c r="J13">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="K13">
         <v>0.998</v>
@@ -8002,10 +8002,10 @@
         <v>-0.038</v>
       </c>
       <c r="J14">
-        <v>-1.029</v>
+        <v>-1.127</v>
       </c>
       <c r="K14">
-        <v>0.305</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8037,10 +8037,10 @@
         <v>-0.078</v>
       </c>
       <c r="J15">
-        <v>-2.209</v>
+        <v>-2.488</v>
       </c>
       <c r="K15">
-        <v>0.029</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8072,10 +8072,10 @@
         <v>-0.06900000000000001</v>
       </c>
       <c r="J16">
-        <v>-1.975</v>
+        <v>-1.589</v>
       </c>
       <c r="K16">
-        <v>0.05</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8107,10 +8107,10 @@
         <v>-0.023</v>
       </c>
       <c r="J17">
-        <v>-0.61</v>
+        <v>-0.543</v>
       </c>
       <c r="K17">
-        <v>0.543</v>
+        <v>0.587</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8142,10 +8142,10 @@
         <v>-0.014</v>
       </c>
       <c r="J18">
-        <v>-0.358</v>
+        <v>-0.363</v>
       </c>
       <c r="K18">
-        <v>0.721</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8177,10 +8177,10 @@
         <v>0.035</v>
       </c>
       <c r="J19">
-        <v>0.9370000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="K19">
-        <v>0.35</v>
+        <v>0.435</v>
       </c>
     </row>
   </sheetData>
@@ -8280,10 +8280,10 @@
         <v>2.949</v>
       </c>
       <c r="K2">
-        <v>0.658</v>
+        <v>0.596</v>
       </c>
       <c r="L2">
-        <v>0.511</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8318,10 +8318,10 @@
         <v>-0.18</v>
       </c>
       <c r="K3">
-        <v>-0.042</v>
+        <v>-0.048</v>
       </c>
       <c r="L3">
-        <v>0.966</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8356,10 +8356,10 @@
         <v>7.12</v>
       </c>
       <c r="K4">
-        <v>1.376</v>
+        <v>1.57</v>
       </c>
       <c r="L4">
-        <v>0.171</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8394,10 +8394,10 @@
         <v>10.091</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>1.677</v>
       </c>
       <c r="L5">
-        <v>0.098</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8432,10 +8432,10 @@
         <v>2.059</v>
       </c>
       <c r="K6">
-        <v>0.36</v>
+        <v>0.408</v>
       </c>
       <c r="L6">
-        <v>0.719</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8470,10 +8470,10 @@
         <v>2.619</v>
       </c>
       <c r="K7">
-        <v>0.462</v>
+        <v>0.434</v>
       </c>
       <c r="L7">
-        <v>0.645</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8505,13 +8505,13 @@
         <v>0.024</v>
       </c>
       <c r="J8">
-        <v>-1.404</v>
+        <v>-1.444</v>
       </c>
       <c r="K8">
-        <v>-0.6850000000000001</v>
+        <v>-0.654</v>
       </c>
       <c r="L8">
-        <v>0.494</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8546,10 +8546,10 @@
         <v>1.465</v>
       </c>
       <c r="K9">
-        <v>0.6909999999999999</v>
+        <v>0.776</v>
       </c>
       <c r="L9">
-        <v>0.491</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8584,10 +8584,10 @@
         <v>-3.884</v>
       </c>
       <c r="K10">
-        <v>-1.497</v>
+        <v>-1.522</v>
       </c>
       <c r="L10">
-        <v>0.136</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8622,10 +8622,10 @@
         <v>-4.833</v>
       </c>
       <c r="K11">
-        <v>-1.906</v>
+        <v>-2.012</v>
       </c>
       <c r="L11">
-        <v>0.059</v>
+        <v>0.044</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8660,10 +8660,10 @@
         <v>-1.939</v>
       </c>
       <c r="K12">
-        <v>-0.835</v>
+        <v>-1.032</v>
       </c>
       <c r="L12">
-        <v>0.405</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8698,10 +8698,10 @@
         <v>-0.451</v>
       </c>
       <c r="K13">
-        <v>-0.191</v>
+        <v>-0.212</v>
       </c>
       <c r="L13">
-        <v>0.848</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8736,10 +8736,10 @@
         <v>-0.043</v>
       </c>
       <c r="K14">
-        <v>-0.995</v>
+        <v>-0.984</v>
       </c>
       <c r="L14">
-        <v>0.321</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8774,10 +8774,10 @@
         <v>-0.107</v>
       </c>
       <c r="K15">
-        <v>-2.643</v>
+        <v>-3.151</v>
       </c>
       <c r="L15">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8812,10 +8812,10 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="K16">
-        <v>-2.165</v>
+        <v>-1.955</v>
       </c>
       <c r="L16">
-        <v>0.032</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8850,10 +8850,10 @@
         <v>-0.012</v>
       </c>
       <c r="K17">
-        <v>-0.281</v>
+        <v>-0.237</v>
       </c>
       <c r="L17">
-        <v>0.779</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8888,10 +8888,10 @@
         <v>0.015</v>
       </c>
       <c r="K18">
-        <v>0.342</v>
+        <v>0.494</v>
       </c>
       <c r="L18">
-        <v>0.733</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8926,10 +8926,10 @@
         <v>0.045</v>
       </c>
       <c r="K19">
-        <v>1.033</v>
+        <v>0.947</v>
       </c>
       <c r="L19">
-        <v>0.303</v>
+        <v>0.344</v>
       </c>
     </row>
   </sheetData>
@@ -9008,10 +9008,10 @@
         <v>3.468</v>
       </c>
       <c r="H2">
-        <v>0.864</v>
+        <v>0.84</v>
       </c>
       <c r="I2">
-        <v>0.389</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9037,10 +9037,10 @@
         <v>-1.377</v>
       </c>
       <c r="H3">
-        <v>-0.33</v>
+        <v>-0.303</v>
       </c>
       <c r="I3">
-        <v>0.742</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9095,10 +9095,10 @@
         <v>3.282</v>
       </c>
       <c r="H5">
-        <v>0.603</v>
+        <v>0.623</v>
       </c>
       <c r="I5">
-        <v>0.547</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9124,10 +9124,10 @@
         <v>6.372</v>
       </c>
       <c r="H6">
-        <v>1.173</v>
+        <v>1.059</v>
       </c>
       <c r="I6">
-        <v>0.242</v>
+        <v>0.289</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9153,10 +9153,10 @@
         <v>-9.327999999999999</v>
       </c>
       <c r="H7">
-        <v>-1.724</v>
+        <v>-1.669</v>
       </c>
       <c r="I7">
-        <v>0.08599999999999999</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9179,13 +9179,13 @@
         <v>0.025</v>
       </c>
       <c r="G8">
-        <v>-1.018</v>
+        <v>-0.918</v>
       </c>
       <c r="H8">
-        <v>-0.573</v>
+        <v>-0.555</v>
       </c>
       <c r="I8">
-        <v>0.5669999999999999</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9211,10 +9211,10 @@
         <v>2.023</v>
       </c>
       <c r="H9">
-        <v>1.052</v>
+        <v>1.109</v>
       </c>
       <c r="I9">
-        <v>0.294</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9243,7 +9243,7 @@
         <v>-0.008</v>
       </c>
       <c r="I10">
-        <v>0.993</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9269,10 +9269,10 @@
         <v>-1.302</v>
       </c>
       <c r="H11">
-        <v>-0.587</v>
+        <v>-0.604</v>
       </c>
       <c r="I11">
-        <v>0.5580000000000001</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9298,10 +9298,10 @@
         <v>-3.675</v>
       </c>
       <c r="H12">
-        <v>-1.698</v>
+        <v>-1.393</v>
       </c>
       <c r="I12">
-        <v>0.091</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9327,10 +9327,10 @@
         <v>3.668</v>
       </c>
       <c r="H13">
-        <v>1.715</v>
+        <v>1.804</v>
       </c>
       <c r="I13">
-        <v>0.08799999999999999</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9356,10 +9356,10 @@
         <v>-0.038</v>
       </c>
       <c r="H14">
-        <v>-1.055</v>
+        <v>-1.031</v>
       </c>
       <c r="I14">
-        <v>0.293</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9385,10 +9385,10 @@
         <v>-0.029</v>
       </c>
       <c r="H15">
-        <v>-0.8090000000000001</v>
+        <v>-0.703</v>
       </c>
       <c r="I15">
-        <v>0.42</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9414,10 +9414,10 @@
         <v>-0.014</v>
       </c>
       <c r="H16">
-        <v>-0.386</v>
+        <v>-0.345</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9443,10 +9443,10 @@
         <v>0.007</v>
       </c>
       <c r="H17">
-        <v>0.193</v>
+        <v>0.234</v>
       </c>
       <c r="I17">
-        <v>0.848</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9472,10 +9472,10 @@
         <v>-0.017</v>
       </c>
       <c r="H18">
-        <v>-0.463</v>
+        <v>-0.698</v>
       </c>
       <c r="I18">
-        <v>0.644</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9501,10 +9501,10 @@
         <v>-0.035</v>
       </c>
       <c r="H19">
-        <v>-0.926</v>
+        <v>-0.876</v>
       </c>
       <c r="I19">
-        <v>0.355</v>
+        <v>0.381</v>
       </c>
     </row>
   </sheetData>
@@ -9583,10 +9583,10 @@
         <v>7.434</v>
       </c>
       <c r="H2">
-        <v>1.466</v>
+        <v>1.376</v>
       </c>
       <c r="I2">
-        <v>0.144</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9612,10 +9612,10 @@
         <v>1.993</v>
       </c>
       <c r="H3">
-        <v>0.377</v>
+        <v>0.364</v>
       </c>
       <c r="I3">
-        <v>0.707</v>
+        <v>0.716</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9641,10 +9641,10 @@
         <v>6.622</v>
       </c>
       <c r="H4">
-        <v>1.138</v>
+        <v>1.142</v>
       </c>
       <c r="I4">
-        <v>0.257</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9670,10 +9670,10 @@
         <v>2.733</v>
       </c>
       <c r="H5">
-        <v>0.396</v>
+        <v>0.369</v>
       </c>
       <c r="I5">
-        <v>0.6929999999999999</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9699,10 +9699,10 @@
         <v>0.581</v>
       </c>
       <c r="H6">
-        <v>0.08400000000000001</v>
+        <v>0.077</v>
       </c>
       <c r="I6">
-        <v>0.9330000000000001</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9728,10 +9728,10 @@
         <v>-14.108</v>
       </c>
       <c r="H7">
-        <v>-2.063</v>
+        <v>-2.416</v>
       </c>
       <c r="I7">
-        <v>0.04</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9754,13 +9754,13 @@
         <v>0.016</v>
       </c>
       <c r="G8">
-        <v>-2.6</v>
+        <v>-2.594</v>
       </c>
       <c r="H8">
-        <v>-1.158</v>
+        <v>-1.208</v>
       </c>
       <c r="I8">
-        <v>0.248</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9786,10 +9786,10 @@
         <v>0.969</v>
       </c>
       <c r="H9">
-        <v>0.396</v>
+        <v>0.399</v>
       </c>
       <c r="I9">
-        <v>0.6919999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9815,10 +9815,10 @@
         <v>-3.526</v>
       </c>
       <c r="H10">
-        <v>-1.245</v>
+        <v>-1.205</v>
       </c>
       <c r="I10">
-        <v>0.215</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9844,10 +9844,10 @@
         <v>-1.515</v>
       </c>
       <c r="H11">
-        <v>-0.539</v>
+        <v>-0.541</v>
       </c>
       <c r="I11">
-        <v>0.591</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9873,10 +9873,10 @@
         <v>-2.278</v>
       </c>
       <c r="H12">
-        <v>-0.825</v>
+        <v>-0.699</v>
       </c>
       <c r="I12">
-        <v>0.41</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9902,10 +9902,10 @@
         <v>5.61</v>
       </c>
       <c r="H13">
-        <v>2.075</v>
+        <v>2.891</v>
       </c>
       <c r="I13">
-        <v>0.039</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9931,10 +9931,10 @@
         <v>-0.029</v>
       </c>
       <c r="H14">
-        <v>-0.636</v>
+        <v>-0.6860000000000001</v>
       </c>
       <c r="I14">
-        <v>0.526</v>
+        <v>0.493</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9960,10 +9960,10 @@
         <v>-0.048</v>
       </c>
       <c r="H15">
-        <v>-1.047</v>
+        <v>-1.041</v>
       </c>
       <c r="I15">
-        <v>0.297</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9989,10 +9989,10 @@
         <v>-0.007</v>
       </c>
       <c r="H16">
-        <v>-0.145</v>
+        <v>-0.153</v>
       </c>
       <c r="I16">
-        <v>0.885</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10018,10 +10018,10 @@
         <v>0.03</v>
       </c>
       <c r="H17">
-        <v>0.632</v>
+        <v>0.617</v>
       </c>
       <c r="I17">
-        <v>0.528</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10047,10 +10047,10 @@
         <v>-0.044</v>
       </c>
       <c r="H18">
-        <v>-0.928</v>
+        <v>-1.19</v>
       </c>
       <c r="I18">
-        <v>0.354</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10076,10 +10076,10 @@
         <v>-0.042</v>
       </c>
       <c r="H19">
-        <v>-0.861</v>
+        <v>-0.773</v>
       </c>
       <c r="I19">
-        <v>0.39</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -10165,10 +10165,10 @@
         <v>12.585</v>
       </c>
       <c r="I2">
-        <v>2.151</v>
+        <v>1.853</v>
       </c>
       <c r="J2">
-        <v>0.033</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10197,10 +10197,10 @@
         <v>-0.585</v>
       </c>
       <c r="I3">
-        <v>-0.095</v>
+        <v>-0.093</v>
       </c>
       <c r="J3">
-        <v>0.924</v>
+        <v>0.926</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10229,10 +10229,10 @@
         <v>2.43</v>
       </c>
       <c r="I4">
-        <v>0.359</v>
+        <v>0.348</v>
       </c>
       <c r="J4">
-        <v>0.72</v>
+        <v>0.728</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10261,10 +10261,10 @@
         <v>3.493</v>
       </c>
       <c r="I5">
-        <v>0.436</v>
+        <v>0.454</v>
       </c>
       <c r="J5">
-        <v>0.663</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10293,10 +10293,10 @@
         <v>-0.8070000000000001</v>
       </c>
       <c r="I6">
-        <v>-0.101</v>
+        <v>-0.081</v>
       </c>
       <c r="J6">
-        <v>0.92</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10325,10 +10325,10 @@
         <v>-12.029</v>
       </c>
       <c r="I7">
-        <v>-1.508</v>
+        <v>-2.104</v>
       </c>
       <c r="J7">
-        <v>0.133</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10354,13 +10354,13 @@
         <v>0.012</v>
       </c>
       <c r="H8">
-        <v>-5.612</v>
+        <v>-5.593</v>
       </c>
       <c r="I8">
-        <v>-2.172</v>
+        <v>-1.955</v>
       </c>
       <c r="J8">
-        <v>0.031</v>
+        <v>0.051</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10389,10 +10389,10 @@
         <v>3.087</v>
       </c>
       <c r="I9">
-        <v>1.091</v>
+        <v>1.168</v>
       </c>
       <c r="J9">
-        <v>0.277</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10421,10 +10421,10 @@
         <v>-1.313</v>
       </c>
       <c r="I10">
-        <v>-0.398</v>
+        <v>-0.359</v>
       </c>
       <c r="J10">
-        <v>0.6909999999999999</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10453,10 +10453,10 @@
         <v>-2.28</v>
       </c>
       <c r="I11">
-        <v>-0.699</v>
+        <v>-0.848</v>
       </c>
       <c r="J11">
-        <v>0.485</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10485,10 +10485,10 @@
         <v>-1.878</v>
       </c>
       <c r="I12">
-        <v>-0.586</v>
+        <v>-0.435</v>
       </c>
       <c r="J12">
-        <v>0.5590000000000001</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10517,10 +10517,10 @@
         <v>5.232</v>
       </c>
       <c r="I13">
-        <v>1.662</v>
+        <v>2.47</v>
       </c>
       <c r="J13">
-        <v>0.098</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10549,10 +10549,10 @@
         <v>-0.002</v>
       </c>
       <c r="I14">
-        <v>-0.039</v>
+        <v>-0.04</v>
       </c>
       <c r="J14">
-        <v>0.969</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10581,10 +10581,10 @@
         <v>-0.053</v>
       </c>
       <c r="I15">
-        <v>-1.001</v>
+        <v>-0.862</v>
       </c>
       <c r="J15">
-        <v>0.318</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10613,10 +10613,10 @@
         <v>-0.02</v>
       </c>
       <c r="I16">
-        <v>-0.376</v>
+        <v>-0.407</v>
       </c>
       <c r="J16">
-        <v>0.707</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10645,10 +10645,10 @@
         <v>0.049</v>
       </c>
       <c r="I17">
-        <v>0.888</v>
+        <v>1.251</v>
       </c>
       <c r="J17">
-        <v>0.376</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10677,10 +10677,10 @@
         <v>-0.05</v>
       </c>
       <c r="I18">
-        <v>-0.904</v>
+        <v>-1.16</v>
       </c>
       <c r="J18">
-        <v>0.367</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10709,10 +10709,10 @@
         <v>-0.083</v>
       </c>
       <c r="I19">
-        <v>-1.471</v>
+        <v>-1.59</v>
       </c>
       <c r="J19">
-        <v>0.143</v>
+        <v>0.112</v>
       </c>
     </row>
   </sheetData>
@@ -10791,10 +10791,10 @@
         <v>0.646</v>
       </c>
       <c r="H2">
-        <v>0.211</v>
+        <v>0.215</v>
       </c>
       <c r="I2">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10820,10 +10820,10 @@
         <v>-3.573</v>
       </c>
       <c r="H3">
-        <v>-1.171</v>
+        <v>-1.192</v>
       </c>
       <c r="I3">
-        <v>0.243</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10849,10 +10849,10 @@
         <v>3.863</v>
       </c>
       <c r="H4">
-        <v>1.107</v>
+        <v>1.098</v>
       </c>
       <c r="I4">
-        <v>0.27</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10878,10 +10878,10 @@
         <v>5.014</v>
       </c>
       <c r="H5">
-        <v>1.248</v>
+        <v>1.09</v>
       </c>
       <c r="I5">
-        <v>0.214</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10907,10 +10907,10 @@
         <v>-2.83</v>
       </c>
       <c r="H6">
-        <v>-0.6899999999999999</v>
+        <v>-0.601</v>
       </c>
       <c r="I6">
-        <v>0.491</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10936,10 +10936,10 @@
         <v>-11.541</v>
       </c>
       <c r="H7">
-        <v>-2.846</v>
+        <v>-2.858</v>
       </c>
       <c r="I7">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10962,13 +10962,13 @@
         <v>0.044</v>
       </c>
       <c r="G8">
-        <v>-0.121</v>
+        <v>-0.012</v>
       </c>
       <c r="H8">
-        <v>-0.089</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="I8">
-        <v>0.929</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10994,10 +10994,10 @@
         <v>2.411</v>
       </c>
       <c r="H9">
-        <v>1.668</v>
+        <v>1.726</v>
       </c>
       <c r="I9">
-        <v>0.097</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11023,10 +11023,10 @@
         <v>-1.902</v>
       </c>
       <c r="H10">
-        <v>-1.116</v>
+        <v>-1.036</v>
       </c>
       <c r="I10">
-        <v>0.266</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11052,10 +11052,10 @@
         <v>-2.011</v>
       </c>
       <c r="H11">
-        <v>-1.198</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="I11">
-        <v>0.232</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11081,10 +11081,10 @@
         <v>0.463</v>
       </c>
       <c r="H12">
-        <v>0.282</v>
+        <v>0.228</v>
       </c>
       <c r="I12">
-        <v>0.778</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11110,10 +11110,10 @@
         <v>5.126</v>
       </c>
       <c r="H13">
-        <v>3.149</v>
+        <v>3.646</v>
       </c>
       <c r="I13">
-        <v>0.002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11139,10 +11139,10 @@
         <v>-0.013</v>
       </c>
       <c r="H14">
-        <v>-0.451</v>
+        <v>-0.493</v>
       </c>
       <c r="I14">
-        <v>0.653</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11168,10 +11168,10 @@
         <v>-0.055</v>
       </c>
       <c r="H15">
-        <v>-2.018</v>
+        <v>-2.387</v>
       </c>
       <c r="I15">
-        <v>0.045</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11197,10 +11197,10 @@
         <v>-0.016</v>
       </c>
       <c r="H16">
-        <v>-0.57</v>
+        <v>-0.59</v>
       </c>
       <c r="I16">
-        <v>0.57</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11226,10 +11226,10 @@
         <v>-0.007</v>
       </c>
       <c r="H17">
-        <v>-0.229</v>
+        <v>-0.243</v>
       </c>
       <c r="I17">
-        <v>0.819</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11255,10 +11255,10 @@
         <v>-0.022</v>
       </c>
       <c r="H18">
-        <v>-0.779</v>
+        <v>-0.9409999999999999</v>
       </c>
       <c r="I18">
-        <v>0.437</v>
+        <v>0.347</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11284,10 +11284,10 @@
         <v>-0.024</v>
       </c>
       <c r="H19">
-        <v>-0.855</v>
+        <v>-0.764</v>
       </c>
       <c r="I19">
-        <v>0.393</v>
+        <v>0.445</v>
       </c>
     </row>
   </sheetData>
@@ -11373,10 +11373,10 @@
         <v>-2.298</v>
       </c>
       <c r="I2">
-        <v>-0.619</v>
+        <v>-0.641</v>
       </c>
       <c r="J2">
-        <v>0.537</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11405,10 +11405,10 @@
         <v>-4.012</v>
       </c>
       <c r="I3">
-        <v>-1.081</v>
+        <v>-0.948</v>
       </c>
       <c r="J3">
-        <v>0.281</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11437,10 +11437,10 @@
         <v>3.092</v>
       </c>
       <c r="I4">
-        <v>0.727</v>
+        <v>0.738</v>
       </c>
       <c r="J4">
-        <v>0.468</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11469,10 +11469,10 @@
         <v>7.774</v>
       </c>
       <c r="I5">
-        <v>1.596</v>
+        <v>1.332</v>
       </c>
       <c r="J5">
-        <v>0.112</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11501,10 +11501,10 @@
         <v>2.868</v>
       </c>
       <c r="I6">
-        <v>0.575</v>
+        <v>0.591</v>
       </c>
       <c r="J6">
-        <v>0.5659999999999999</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11533,10 +11533,10 @@
         <v>-7.634</v>
       </c>
       <c r="I7">
-        <v>-1.526</v>
+        <v>-1.759</v>
       </c>
       <c r="J7">
-        <v>0.129</v>
+        <v>0.079</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11562,13 +11562,13 @@
         <v>0.031</v>
       </c>
       <c r="H8">
-        <v>1.104</v>
+        <v>1.222</v>
       </c>
       <c r="I8">
-        <v>0.67</v>
+        <v>0.717</v>
       </c>
       <c r="J8">
-        <v>0.504</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11597,10 +11597,10 @@
         <v>2.516</v>
       </c>
       <c r="I9">
-        <v>1.429</v>
+        <v>1.225</v>
       </c>
       <c r="J9">
-        <v>0.155</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11629,10 +11629,10 @@
         <v>-1.836</v>
       </c>
       <c r="I10">
-        <v>-0.885</v>
+        <v>-0.797</v>
       </c>
       <c r="J10">
-        <v>0.377</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11661,10 +11661,10 @@
         <v>-2.809</v>
       </c>
       <c r="I11">
-        <v>-1.38</v>
+        <v>-1.101</v>
       </c>
       <c r="J11">
-        <v>0.169</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11693,10 +11693,10 @@
         <v>-1.666</v>
       </c>
       <c r="I12">
-        <v>-0.836</v>
+        <v>-0.731</v>
       </c>
       <c r="J12">
-        <v>0.404</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11725,10 +11725,10 @@
         <v>3.769</v>
       </c>
       <c r="I13">
-        <v>1.873</v>
+        <v>2.246</v>
       </c>
       <c r="J13">
-        <v>0.063</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11757,10 +11757,10 @@
         <v>-0.035</v>
       </c>
       <c r="I14">
-        <v>-1.035</v>
+        <v>-0.996</v>
       </c>
       <c r="J14">
-        <v>0.302</v>
+        <v>0.319</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11789,10 +11789,10 @@
         <v>-0.031</v>
       </c>
       <c r="I15">
-        <v>-0.912</v>
+        <v>-0.969</v>
       </c>
       <c r="J15">
-        <v>0.363</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11821,10 +11821,10 @@
         <v>-0.014</v>
       </c>
       <c r="I16">
-        <v>-0.42</v>
+        <v>-0.336</v>
       </c>
       <c r="J16">
-        <v>0.675</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11853,10 +11853,10 @@
         <v>0.002</v>
       </c>
       <c r="I17">
-        <v>0.053</v>
+        <v>0.055</v>
       </c>
       <c r="J17">
-        <v>0.958</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11885,10 +11885,10 @@
         <v>-0.011</v>
       </c>
       <c r="I18">
-        <v>-0.322</v>
+        <v>-0.371</v>
       </c>
       <c r="J18">
-        <v>0.748</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11917,10 +11917,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="I19">
-        <v>-0.268</v>
+        <v>-0.247</v>
       </c>
       <c r="J19">
-        <v>0.789</v>
+        <v>0.805</v>
       </c>
     </row>
   </sheetData>
@@ -12038,10 +12038,10 @@
         <v>-1.98</v>
       </c>
       <c r="I3">
-        <v>-0.421</v>
+        <v>-0.423</v>
       </c>
       <c r="J3">
-        <v>0.674</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12070,10 +12070,10 @@
         <v>8.662000000000001</v>
       </c>
       <c r="I4">
-        <v>1.623</v>
+        <v>1.661</v>
       </c>
       <c r="J4">
-        <v>0.106</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12102,10 +12102,10 @@
         <v>6.951</v>
       </c>
       <c r="I5">
-        <v>1.126</v>
+        <v>0.903</v>
       </c>
       <c r="J5">
-        <v>0.261</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12134,10 +12134,10 @@
         <v>-3.874</v>
       </c>
       <c r="I6">
-        <v>-0.615</v>
+        <v>-0.621</v>
       </c>
       <c r="J6">
-        <v>0.539</v>
+        <v>0.535</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12166,10 +12166,10 @@
         <v>-13.244</v>
       </c>
       <c r="I7">
-        <v>-2.108</v>
+        <v>-1.914</v>
       </c>
       <c r="J7">
-        <v>0.036</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12195,13 +12195,13 @@
         <v>0.021</v>
       </c>
       <c r="H8">
-        <v>0.33</v>
+        <v>0.379</v>
       </c>
       <c r="I8">
-        <v>0.158</v>
+        <v>0.17</v>
       </c>
       <c r="J8">
-        <v>0.874</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12230,10 +12230,10 @@
         <v>2.045</v>
       </c>
       <c r="I9">
-        <v>0.917</v>
+        <v>0.863</v>
       </c>
       <c r="J9">
-        <v>0.36</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12262,10 +12262,10 @@
         <v>-4.769</v>
       </c>
       <c r="I10">
-        <v>-1.834</v>
+        <v>-1.627</v>
       </c>
       <c r="J10">
-        <v>0.068</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12294,10 +12294,10 @@
         <v>-2.893</v>
       </c>
       <c r="I11">
-        <v>-1.123</v>
+        <v>-0.851</v>
       </c>
       <c r="J11">
-        <v>0.263</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12326,10 +12326,10 @@
         <v>0.643</v>
       </c>
       <c r="I12">
-        <v>0.255</v>
+        <v>0.249</v>
       </c>
       <c r="J12">
-        <v>0.799</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12358,10 +12358,10 @@
         <v>6.076</v>
       </c>
       <c r="I13">
-        <v>2.406</v>
+        <v>2.423</v>
       </c>
       <c r="J13">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12390,10 +12390,10 @@
         <v>-0.039</v>
       </c>
       <c r="I14">
-        <v>-0.926</v>
+        <v>-0.921</v>
       </c>
       <c r="J14">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12422,10 +12422,10 @@
         <v>-0.041</v>
       </c>
       <c r="I15">
-        <v>-0.972</v>
+        <v>-1.241</v>
       </c>
       <c r="J15">
-        <v>0.332</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12454,10 +12454,10 @@
         <v>-0.018</v>
       </c>
       <c r="I16">
-        <v>-0.428</v>
+        <v>-0.383</v>
       </c>
       <c r="J16">
-        <v>0.669</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12486,10 +12486,10 @@
         <v>0.038</v>
       </c>
       <c r="I17">
-        <v>0.867</v>
+        <v>0.768</v>
       </c>
       <c r="J17">
-        <v>0.387</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12518,10 +12518,10 @@
         <v>-0.021</v>
       </c>
       <c r="I18">
-        <v>-0.465</v>
+        <v>-0.503</v>
       </c>
       <c r="J18">
-        <v>0.643</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12550,10 +12550,10 @@
         <v>0.006</v>
       </c>
       <c r="I19">
-        <v>0.144</v>
+        <v>0.108</v>
       </c>
       <c r="J19">
-        <v>0.886</v>
+        <v>0.914</v>
       </c>
     </row>
   </sheetData>
@@ -12639,10 +12639,10 @@
         <v>6.193</v>
       </c>
       <c r="I2">
-        <v>1.173</v>
+        <v>1.117</v>
       </c>
       <c r="J2">
-        <v>0.242</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12671,10 +12671,10 @@
         <v>-6.341</v>
       </c>
       <c r="I3">
-        <v>-1.2</v>
+        <v>-1.023</v>
       </c>
       <c r="J3">
-        <v>0.232</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12703,10 +12703,10 @@
         <v>7.054</v>
       </c>
       <c r="I4">
-        <v>1.167</v>
+        <v>1.137</v>
       </c>
       <c r="J4">
-        <v>0.245</v>
+        <v>0.256</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12735,10 +12735,10 @@
         <v>8.744</v>
       </c>
       <c r="I5">
-        <v>1.256</v>
+        <v>1.147</v>
       </c>
       <c r="J5">
-        <v>0.211</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12767,10 +12767,10 @@
         <v>-5.178</v>
       </c>
       <c r="I6">
-        <v>-0.729</v>
+        <v>-0.786</v>
       </c>
       <c r="J6">
-        <v>0.467</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12799,10 +12799,10 @@
         <v>-9.66</v>
       </c>
       <c r="I7">
-        <v>-1.352</v>
+        <v>-1.496</v>
       </c>
       <c r="J7">
-        <v>0.178</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12828,13 +12828,13 @@
         <v>0.015</v>
       </c>
       <c r="H8">
-        <v>-3.495</v>
+        <v>-3.441</v>
       </c>
       <c r="I8">
-        <v>-1.494</v>
+        <v>-1.336</v>
       </c>
       <c r="J8">
-        <v>0.137</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12863,10 +12863,10 @@
         <v>4.231</v>
       </c>
       <c r="I9">
-        <v>1.69</v>
+        <v>1.46</v>
       </c>
       <c r="J9">
-        <v>0.093</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12895,10 +12895,10 @@
         <v>-3.711</v>
       </c>
       <c r="I10">
-        <v>-1.258</v>
+        <v>-1.042</v>
       </c>
       <c r="J10">
-        <v>0.21</v>
+        <v>0.297</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12927,10 +12927,10 @@
         <v>-3.898</v>
       </c>
       <c r="I11">
-        <v>-1.342</v>
+        <v>-1.258</v>
       </c>
       <c r="J11">
-        <v>0.181</v>
+        <v>0.209</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12959,10 +12959,10 @@
         <v>0.781</v>
       </c>
       <c r="I12">
-        <v>0.274</v>
+        <v>0.286</v>
       </c>
       <c r="J12">
-        <v>0.784</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12991,10 +12991,10 @@
         <v>5.281</v>
       </c>
       <c r="I13">
-        <v>1.841</v>
+        <v>2.149</v>
       </c>
       <c r="J13">
-        <v>0.067</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13023,10 +13023,10 @@
         <v>-0.036</v>
       </c>
       <c r="I14">
-        <v>-0.739</v>
+        <v>-0.8159999999999999</v>
       </c>
       <c r="J14">
-        <v>0.461</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13055,10 +13055,10 @@
         <v>-0.058</v>
       </c>
       <c r="I15">
-        <v>-1.219</v>
+        <v>-1.393</v>
       </c>
       <c r="J15">
-        <v>0.224</v>
+        <v>0.164</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13087,10 +13087,10 @@
         <v>-0.022</v>
       </c>
       <c r="I16">
-        <v>-0.467</v>
+        <v>-0.45</v>
       </c>
       <c r="J16">
-        <v>0.641</v>
+        <v>0.652</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13119,10 +13119,10 @@
         <v>0.04</v>
       </c>
       <c r="I17">
-        <v>0.8</v>
+        <v>0.768</v>
       </c>
       <c r="J17">
-        <v>0.425</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13151,10 +13151,10 @@
         <v>-0.016</v>
       </c>
       <c r="I18">
-        <v>-0.315</v>
+        <v>-0.389</v>
       </c>
       <c r="J18">
-        <v>0.753</v>
+        <v>0.697</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13183,10 +13183,10 @@
         <v>-0.022</v>
       </c>
       <c r="I19">
-        <v>-0.439</v>
+        <v>-0.416</v>
       </c>
       <c r="J19">
-        <v>0.661</v>
+        <v>0.678</v>
       </c>
     </row>
   </sheetData>
@@ -13265,10 +13265,10 @@
         <v>-0.131</v>
       </c>
       <c r="H2">
-        <v>-0.045</v>
+        <v>-0.04</v>
       </c>
       <c r="I2">
-        <v>0.964</v>
+        <v>0.968</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13294,10 +13294,10 @@
         <v>0.2</v>
       </c>
       <c r="H3">
-        <v>0.07199999999999999</v>
+        <v>0.078</v>
       </c>
       <c r="I3">
-        <v>0.9429999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13323,10 +13323,10 @@
         <v>0.593</v>
       </c>
       <c r="H4">
-        <v>0.177</v>
+        <v>0.151</v>
       </c>
       <c r="I4">
-        <v>0.859</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13352,10 +13352,10 @@
         <v>4.779</v>
       </c>
       <c r="H5">
-        <v>1.218</v>
+        <v>1.034</v>
       </c>
       <c r="I5">
-        <v>0.225</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13381,10 +13381,10 @@
         <v>-2.843</v>
       </c>
       <c r="H6">
-        <v>-0.723</v>
+        <v>-0.599</v>
       </c>
       <c r="I6">
-        <v>0.471</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13410,10 +13410,10 @@
         <v>-3.65</v>
       </c>
       <c r="H7">
-        <v>-0.924</v>
+        <v>-0.842</v>
       </c>
       <c r="I7">
-        <v>0.357</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13436,13 +13436,13 @@
         <v>0.05</v>
       </c>
       <c r="G8">
-        <v>0.414</v>
+        <v>0.509</v>
       </c>
       <c r="H8">
-        <v>0.312</v>
+        <v>0.354</v>
       </c>
       <c r="I8">
-        <v>0.755</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13468,10 +13468,10 @@
         <v>0.679</v>
       </c>
       <c r="H9">
-        <v>0.494</v>
+        <v>0.519</v>
       </c>
       <c r="I9">
-        <v>0.622</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13497,10 +13497,10 @@
         <v>-0.498</v>
       </c>
       <c r="H10">
-        <v>-0.298</v>
+        <v>-0.241</v>
       </c>
       <c r="I10">
-        <v>0.766</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13526,10 +13526,10 @@
         <v>-1.958</v>
       </c>
       <c r="H11">
-        <v>-1.188</v>
+        <v>-0.924</v>
       </c>
       <c r="I11">
-        <v>0.236</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13555,10 +13555,10 @@
         <v>0.398</v>
       </c>
       <c r="H12">
-        <v>0.253</v>
+        <v>0.196</v>
       </c>
       <c r="I12">
-        <v>0.801</v>
+        <v>0.845</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13584,10 +13584,10 @@
         <v>2.157</v>
       </c>
       <c r="H13">
-        <v>1.352</v>
+        <v>1.255</v>
       </c>
       <c r="I13">
-        <v>0.178</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13613,10 +13613,10 @@
         <v>-0.024</v>
       </c>
       <c r="H14">
-        <v>-0.879</v>
+        <v>-0.846</v>
       </c>
       <c r="I14">
-        <v>0.38</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13642,10 +13642,10 @@
         <v>-0.061</v>
       </c>
       <c r="H15">
-        <v>-2.349</v>
+        <v>-3.028</v>
       </c>
       <c r="I15">
-        <v>0.02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13671,10 +13671,10 @@
         <v>-0.028</v>
       </c>
       <c r="H16">
-        <v>-1.052</v>
+        <v>-1.024</v>
       </c>
       <c r="I16">
-        <v>0.294</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13700,10 +13700,10 @@
         <v>-0.007</v>
       </c>
       <c r="H17">
-        <v>-0.269</v>
+        <v>-0.257</v>
       </c>
       <c r="I17">
-        <v>0.788</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13729,7 +13729,7 @@
         <v>-0.05</v>
       </c>
       <c r="H18">
-        <v>-1.772</v>
+        <v>-1.765</v>
       </c>
       <c r="I18">
         <v>0.078</v>
@@ -13758,10 +13758,10 @@
         <v>-0.025</v>
       </c>
       <c r="H19">
-        <v>-0.876</v>
+        <v>-0.877</v>
       </c>
       <c r="I19">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
     </row>
   </sheetData>
